--- a/app/Form/stock_symbols_01.xlsx
+++ b/app/Form/stock_symbols_01.xlsx
@@ -11,14 +11,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>AAPL</t>
   </si>
   <si>
-    <t>ABNB</t>
-  </si>
-  <si>
     <t>ADBE</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>ARKW</t>
   </si>
   <si>
-    <t>ARKX</t>
-  </si>
-  <si>
     <t>ASML</t>
   </si>
   <si>
@@ -64,7 +58,7 @@
     <t>BIDU</t>
   </si>
   <si>
-    <t>BRK.B</t>
+    <t>BRK-B</t>
   </si>
   <si>
     <t>BYND</t>
@@ -988,16 +982,6 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/app/Form/stock_symbols_01.xlsx
+++ b/app/Form/stock_symbols_01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>AAPL</t>
   </si>
@@ -67,6 +67,9 @@
     <t>CAT</t>
   </si>
   <si>
+    <t>CLOU</t>
+  </si>
+  <si>
     <t>CHWY</t>
   </si>
   <si>
@@ -181,9 +184,15 @@
     <t>PYPL</t>
   </si>
   <si>
+    <t>PAVE</t>
+  </si>
+  <si>
     <t>QQQ</t>
   </si>
   <si>
+    <t>QCOM</t>
+  </si>
+  <si>
     <t>SBUX</t>
   </si>
   <si>
@@ -250,9 +259,6 @@
     <t>VTI</t>
   </si>
   <si>
-    <t>VXX</t>
-  </si>
-  <si>
     <t>VZ</t>
   </si>
   <si>
@@ -265,10 +271,10 @@
     <t>XBI</t>
   </si>
   <si>
-    <t>XI</t>
-  </si>
-  <si>
     <t>XLK</t>
+  </si>
+  <si>
+    <t>XLF</t>
   </si>
   <si>
     <t>ZM</t>
@@ -982,6 +988,16 @@
         <v>86</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/app/Form/stock_symbols_01.xlsx
+++ b/app/Form/stock_symbols_01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>AAPL</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>SNOW</t>
-  </si>
-  <si>
-    <t>SOX</t>
   </si>
   <si>
     <t>SOXX</t>
@@ -993,11 +990,6 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
